--- a/biology/Zoologie/Giovanni_Battista_Grassi/Giovanni_Battista_Grassi.xlsx
+++ b/biology/Zoologie/Giovanni_Battista_Grassi/Giovanni_Battista_Grassi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Giovanni Battista Grassi (né le 27 mars 1854 à Rovellasca, dans la province de Côme en Lombardie, et mort le 4 mai 1925 à Rome) est un zoologiste italien de la fin du XIXe et du début du XXe siècle.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Giovanni Battista Grassi obtient son doctorat de médecine en 1878 à l’université de Pavie. Il étudie la zoologie à Heidelberg et à Wurtzbourg. Il enseigne la zoologie à Catane à partir de 1883. À partir de 1895, il occupe une chaire d’anatomie comparée à Rome.
 Il est notamment l’auteur de I Chetognati (1883), I Progenitori degli insetti e dei miriapodi, l’Japyx e la Campodia (1886), Studi di uno zoologo sulla malaria (1900) et Flagellati viventi nei termiti (1917). Il reçoit la médaille Darwin en 1896 attribuée par la Royal Society.
@@ -545,7 +559,9 @@
           <t>Orientation bibliographique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>E. Capanna (2006). Battista Grassi: a zoologist for malaria, Contributions to Science, 3 (2) : 187-195.  (ISSN 1575-6343)</t>
         </is>
